--- a/新导表工具/DataTables/Datas/__beans__.xlsx
+++ b/新导表工具/DataTables/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6800918-D3C6-407C-B6C4-091CEC35C40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E951F-538D-46C0-9F5A-9C120025D48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1730" yWindow="2170" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Battle.Property</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>MaxQI</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>TPO</t>
+  </si>
+  <si>
+    <t>SSI</t>
   </si>
 </sst>
 </file>
@@ -448,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J4" sqref="J4:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -550,6 +574,57 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>

--- a/新导表工具/DataTables/Datas/__beans__.xlsx
+++ b/新导表工具/DataTables/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E951F-538D-46C0-9F5A-9C120025D48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A6279-FF1A-455D-A2AB-C9CC7626AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1730" yWindow="2170" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2510" yWindow="5510" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -86,30 +86,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>Battle.Property</t>
-  </si>
-  <si>
-    <t>MaxHP</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>MaxQI</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>TPO</t>
-  </si>
-  <si>
-    <t>SSI</t>
   </si>
 </sst>
 </file>
@@ -472,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -574,57 +550,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:N1"/>
